--- a/RP_ModuleIKSet001.xlsx
+++ b/RP_ModuleIKSet001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\RobotProject221102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF5042-BDB0-4C55-8343-BF32EFFAD12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF60FF4-C15A-4C3C-BAC5-676D545A98BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14820" yWindow="5565" windowWidth="15960" windowHeight="15435" xr2:uid="{81F82B1B-DC2B-4AC9-8FF4-D3227F779C49}"/>
+    <workbookView xWindow="-20805" yWindow="4005" windowWidth="18675" windowHeight="15435" xr2:uid="{81F82B1B-DC2B-4AC9-8FF4-D3227F779C49}"/>
   </bookViews>
   <sheets>
     <sheet name="RP_ModuleIKSet001" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0: pos_to_pos</t>
-  </si>
-  <si>
     <t>アタッチモジュール名</t>
     <rPh sb="9" eb="10">
       <t>メイ</t>
@@ -150,6 +147,9 @@
   <si>
     <t>7: kp</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0: pos_to_pos</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -653,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>8</v>
@@ -679,25 +679,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -718,7 +718,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H3" s="7">
         <v>0.4</v>
@@ -742,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H4" s="8">
         <v>0.4</v>
@@ -766,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>0.4</v>

--- a/RP_ModuleIKSet001.xlsx
+++ b/RP_ModuleIKSet001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\RoboProject221124\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\CppGames\GitManagements\RobotProject221213\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D43D58-C327-43FA-BD7B-EA8B48BF2140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D741EF86-B0FE-481C-95C9-8B6F02B6201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RP_ModuleIKSet001" sheetId="1" r:id="rId1"/>
@@ -1357,20 +1357,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" customWidth="1"/>
+    <col min="6" max="6" width="15.09765625" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="72" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>100</v>
       </c>
@@ -1449,13 +1449,13 @@
         <v>1</v>
       </c>
       <c r="H3" s="6">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>101</v>
       </c>
@@ -1478,11 +1478,11 @@
         <v>3</v>
       </c>
       <c r="H4" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>102</v>
       </c>
@@ -1505,11 +1505,11 @@
         <v>3</v>
       </c>
       <c r="H5" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>200</v>
       </c>
@@ -1532,13 +1532,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>201</v>
       </c>
@@ -1561,11 +1561,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>202</v>
       </c>
@@ -1588,11 +1588,11 @@
         <v>3</v>
       </c>
       <c r="H8" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>300</v>
       </c>
@@ -1615,13 +1615,13 @@
         <v>5</v>
       </c>
       <c r="H9" s="6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>301</v>
       </c>
@@ -1644,13 +1644,13 @@
         <v>5</v>
       </c>
       <c r="H10" s="7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>302</v>
       </c>
@@ -1673,11 +1673,11 @@
         <v>5</v>
       </c>
       <c r="H11" s="6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>303</v>
       </c>
@@ -1700,11 +1700,11 @@
         <v>5</v>
       </c>
       <c r="H12" s="7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>304</v>
       </c>
@@ -1727,11 +1727,11 @@
         <v>8</v>
       </c>
       <c r="H13" s="6">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>305</v>
       </c>
@@ -1754,11 +1754,11 @@
         <v>8</v>
       </c>
       <c r="H14" s="7">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>306</v>
       </c>
@@ -1781,11 +1781,11 @@
         <v>8</v>
       </c>
       <c r="H15" s="6">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>300</v>
       </c>
@@ -1808,13 +1808,13 @@
         <v>5</v>
       </c>
       <c r="H16" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>301</v>
       </c>
@@ -1837,11 +1837,11 @@
         <v>67</v>
       </c>
       <c r="H17" s="6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>303</v>
       </c>
@@ -1864,13 +1864,13 @@
         <v>1</v>
       </c>
       <c r="H18" s="7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>304</v>
       </c>
@@ -1893,13 +1893,13 @@
         <v>1</v>
       </c>
       <c r="H19" s="6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>306</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>400</v>
       </c>
@@ -1951,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="H21" s="6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>401</v>
       </c>
@@ -1980,13 +1980,13 @@
         <v>5</v>
       </c>
       <c r="H22" s="7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>402</v>
       </c>
@@ -2009,11 +2009,11 @@
         <v>5</v>
       </c>
       <c r="H23" s="6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>403</v>
       </c>
@@ -2036,11 +2036,11 @@
         <v>5</v>
       </c>
       <c r="H24" s="7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>404</v>
       </c>
@@ -2063,11 +2063,11 @@
         <v>8</v>
       </c>
       <c r="H25" s="6">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>405</v>
       </c>
@@ -2090,11 +2090,11 @@
         <v>8</v>
       </c>
       <c r="H26" s="7">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>406</v>
       </c>
@@ -2117,11 +2117,11 @@
         <v>8</v>
       </c>
       <c r="H27" s="6">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>400</v>
       </c>
@@ -2144,13 +2144,13 @@
         <v>5</v>
       </c>
       <c r="H28" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>401</v>
       </c>
@@ -2173,11 +2173,11 @@
         <v>5</v>
       </c>
       <c r="H29" s="6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
         <v>403</v>
       </c>
@@ -2200,13 +2200,13 @@
         <v>1</v>
       </c>
       <c r="H30" s="7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>404</v>
       </c>
@@ -2229,13 +2229,13 @@
         <v>1</v>
       </c>
       <c r="H31" s="6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="7">
         <v>406</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2277,7 +2277,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2288,7 +2288,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2299,7 +2299,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2310,7 +2310,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2321,7 +2321,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2332,7 +2332,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2343,7 +2343,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2354,7 +2354,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2365,7 +2365,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2376,7 +2376,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2387,7 +2387,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2398,7 +2398,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2409,7 +2409,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2420,7 +2420,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2431,7 +2431,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2442,7 +2442,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2453,7 +2453,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2464,7 +2464,7 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2475,7 +2475,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2486,7 +2486,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2497,7 +2497,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2508,7 +2508,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2519,7 +2519,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2530,7 +2530,7 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2541,7 +2541,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2552,7 +2552,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2563,7 +2563,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2574,7 +2574,7 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2585,7 +2585,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2596,7 +2596,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2607,7 +2607,7 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2618,7 +2618,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2629,7 +2629,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2640,7 +2640,7 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2651,7 +2651,7 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2662,7 +2662,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2673,7 +2673,7 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2684,7 +2684,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2695,7 +2695,7 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2706,7 +2706,7 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2717,7 +2717,7 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2728,7 +2728,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2739,7 +2739,7 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2750,7 +2750,7 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2761,7 +2761,7 @@
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -2772,7 +2772,7 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2783,7 +2783,7 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -2794,7 +2794,7 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2805,7 +2805,7 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>

--- a/RP_ModuleIKSet001.xlsx
+++ b/RP_ModuleIKSet001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\CppGames\GitManagements\RobotProject221213\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\RobotProject221209\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D741EF86-B0FE-481C-95C9-8B6F02B6201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C267C9-96B6-4D15-B82E-339122DFE90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RP_ModuleIKSet001" sheetId="1" r:id="rId1"/>
@@ -1357,20 +1357,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.09765625" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" customWidth="1"/>
-    <col min="6" max="6" width="15.09765625" customWidth="1"/>
-    <col min="7" max="7" width="14.8984375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>100</v>
       </c>
@@ -1449,13 +1449,13 @@
         <v>1</v>
       </c>
       <c r="H3" s="6">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>101</v>
       </c>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>102</v>
       </c>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>200</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>201</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>202</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>300</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>301</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>302</v>
       </c>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>303</v>
       </c>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>304</v>
       </c>
@@ -1727,11 +1727,11 @@
         <v>8</v>
       </c>
       <c r="H13" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>305</v>
       </c>
@@ -1754,11 +1754,11 @@
         <v>8</v>
       </c>
       <c r="H14" s="7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
         <v>306</v>
       </c>
@@ -1781,11 +1781,11 @@
         <v>8</v>
       </c>
       <c r="H15" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>300</v>
       </c>
@@ -1808,13 +1808,13 @@
         <v>5</v>
       </c>
       <c r="H16" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
         <v>301</v>
       </c>
@@ -1837,11 +1837,11 @@
         <v>67</v>
       </c>
       <c r="H17" s="6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>303</v>
       </c>
@@ -1864,13 +1864,13 @@
         <v>1</v>
       </c>
       <c r="H18" s="7">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
         <v>304</v>
       </c>
@@ -1893,13 +1893,13 @@
         <v>1</v>
       </c>
       <c r="H19" s="6">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>306</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
         <v>400</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>401</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="6">
         <v>402</v>
       </c>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>403</v>
       </c>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="6">
         <v>404</v>
       </c>
@@ -2063,11 +2063,11 @@
         <v>8</v>
       </c>
       <c r="H25" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
         <v>405</v>
       </c>
@@ -2090,11 +2090,11 @@
         <v>8</v>
       </c>
       <c r="H26" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="6">
         <v>406</v>
       </c>
@@ -2117,11 +2117,11 @@
         <v>8</v>
       </c>
       <c r="H27" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <v>400</v>
       </c>
@@ -2144,13 +2144,13 @@
         <v>5</v>
       </c>
       <c r="H28" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="6">
         <v>401</v>
       </c>
@@ -2173,11 +2173,11 @@
         <v>5</v>
       </c>
       <c r="H29" s="6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
         <v>403</v>
       </c>
@@ -2200,13 +2200,13 @@
         <v>1</v>
       </c>
       <c r="H30" s="7">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
         <v>404</v>
       </c>
@@ -2229,13 +2229,13 @@
         <v>1</v>
       </c>
       <c r="H31" s="6">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="7">
         <v>406</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2277,7 +2277,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2288,7 +2288,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2299,7 +2299,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2310,7 +2310,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2321,7 +2321,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2332,7 +2332,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2343,7 +2343,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2354,7 +2354,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2365,7 +2365,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2376,7 +2376,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2387,7 +2387,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2398,7 +2398,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2409,7 +2409,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2420,7 +2420,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2431,7 +2431,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2442,7 +2442,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2453,7 +2453,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2464,7 +2464,7 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2475,7 +2475,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2486,7 +2486,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2497,7 +2497,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2508,7 +2508,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2519,7 +2519,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2530,7 +2530,7 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2541,7 +2541,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2552,7 +2552,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2563,7 +2563,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2574,7 +2574,7 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2585,7 +2585,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2596,7 +2596,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2607,7 +2607,7 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2618,7 +2618,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2629,7 +2629,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2640,7 +2640,7 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2651,7 +2651,7 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2662,7 +2662,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2673,7 +2673,7 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2684,7 +2684,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2695,7 +2695,7 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2706,7 +2706,7 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2717,7 +2717,7 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2728,7 +2728,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2739,7 +2739,7 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2750,7 +2750,7 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2761,7 +2761,7 @@
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -2772,7 +2772,7 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2783,7 +2783,7 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -2794,7 +2794,7 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2805,7 +2805,7 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
